--- a/biology/Botanique/Ethelbert_Blatter/Ethelbert_Blatter.xlsx
+++ b/biology/Botanique/Ethelbert_Blatter/Ethelbert_Blatter.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ethelbert Blatter, né le 15 septembre 1877 à Rebstein (Suisse) et décédé le 26 mai 1934 à Poona (Inde)[1], est un prêtre jésuite suisse, et botaniste de renom.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ethelbert Blatter, né le 15 septembre 1877 à Rebstein (Suisse) et décédé le 26 mai 1934 à Poona (Inde), est un prêtre jésuite suisse, et botaniste de renom.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il étudie les langues modernes à Schwyz avant d'entrer dans la Compagnie de Jésus en 1896 à la grande surprise de ses proches. Il complète ses études de philosophie avant de se consacrer presque exclusivement à la botanique. Il arrive en Inde en 1903 et enseigne la biologie au Collège Saint Xavier de Bombay. C'est alors qu'il commence à rédiger ses premières contributions consacrées à la flore asiatique. Il voyage beaucoup et, à partir de 1906, constitue un vaste herbier.
 De retour en Europe en 1909 pour l'étude de la théologie, comme préparation au sacerdoce, il est ordonné prêtre le 25 aout 1912 à Hastings (Angleterre).
@@ -545,7 +559,9 @@
           <t>Blatter Herbarium</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'herbier des Facultés universitaires Saint-Xavier à Bombay qu'il avait initié en 1906 a été rebaptisé Blatter Herbarium en 1941, en hommage à son fondateur, par son associé le père Henry Santapau. Reconnu comme un des meilleurs en Inde il compte aujourd'hui plus de 300000 specimens de plantes et est répertorié sur la liste des herbiers publiée par le 'Kew Institute' de Londres.
 </t>
@@ -576,7 +592,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>The Flora of Aden, dans  Journal of the Bombay Natural History Society, 1907, vol. xvii : 895-920 ; 1908, vol. xviii : 54-68.
 Flora Arabica, Calcutta, 1919, 6 vol.
